--- a/CSC2033Timesheet.xlsx
+++ b/CSC2033Timesheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>More ideas and finalising our decision for the two projects we want to focus on; we all decided on the smoking and climate change apps. I suggested making the game unlock more content as the player reaches higher consecutive days successfully played (smoking specifically).</t>
+  </si>
+  <si>
+    <t>22/04/2024</t>
+  </si>
+  <si>
+    <t>Research; assigning roles on what parts of the project we should each obtain more information about</t>
   </si>
   <si>
     <t>#</t>
@@ -149,7 +155,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +166,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -254,49 +266,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -313,7 +334,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E83" displayName="Other" name="Other" id="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G1:G2" displayName="OtherTotal" name="OtherTotal" id="1" totalsRowShown="0">
+  <autoFilter ref="G1:G2"/>
+  <tableColumns count="1">
+    <tableColumn name="Total Hours" id="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E83" displayName="Week4" name="Week4" id="10" totalsRowShown="0">
   <autoFilter ref="A1:E83"/>
   <tableColumns count="5">
     <tableColumn name="Date" id="1"/>
@@ -326,8 +357,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G1:G2" displayName="Week4Total" name="Week4Total" id="10" totalsRowShown="0">
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G1:G2" displayName="Week3Total" name="Week3Total" id="11" totalsRowShown="0">
   <autoFilter ref="G1:G2"/>
   <tableColumns count="1">
     <tableColumn name="Total Hours" id="1"/>
@@ -336,8 +367,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E83" displayName="Week3" name="Week3" id="11" totalsRowShown="0">
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E83" displayName="Week3" name="Week3" id="12" totalsRowShown="0">
   <autoFilter ref="A1:E83"/>
   <tableColumns count="5">
     <tableColumn name="Date" id="1"/>
@@ -350,8 +381,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G1:G2" displayName="Week3Total" name="Week3Total" id="12" totalsRowShown="0">
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G1:G2" displayName="Week2Total" name="Week2Total" id="13" totalsRowShown="0">
   <autoFilter ref="G1:G2"/>
   <tableColumns count="1">
     <tableColumn name="Total Hours" id="1"/>
@@ -360,8 +391,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E83" displayName="Week2" name="Week2" id="13" totalsRowShown="0">
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E83" displayName="Week2" name="Week2" id="14" totalsRowShown="0">
   <autoFilter ref="A1:E83"/>
   <tableColumns count="5">
     <tableColumn name="Date" id="1"/>
@@ -374,8 +405,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G1:G2" displayName="Week2Total" name="Week2Total" id="14" totalsRowShown="0">
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G1:G2" displayName="VacationTotal" name="VacationTotal" id="15" totalsRowShown="0">
   <autoFilter ref="G1:G2"/>
   <tableColumns count="1">
     <tableColumn name="Total Hours" id="1"/>
@@ -384,8 +415,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E83" displayName="Vacation" name="Vacation" id="15" totalsRowShown="0">
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E83" displayName="Vacation" name="Vacation" id="16" totalsRowShown="0">
   <autoFilter ref="A1:E83"/>
   <tableColumns count="5">
     <tableColumn name="Date" id="1"/>
@@ -398,8 +429,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G1:G2" displayName="VacationTotal" name="VacationTotal" id="16" totalsRowShown="0">
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G1:G2" displayName="Week1Total" name="Week1Total" id="17" totalsRowShown="0">
   <autoFilter ref="G1:G2"/>
   <tableColumns count="1">
     <tableColumn name="Total Hours" id="1"/>
@@ -408,8 +439,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E83" displayName="Week1" name="Week1" id="17" totalsRowShown="0">
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E83" displayName="Week1" name="Week1" id="18" totalsRowShown="0">
   <autoFilter ref="A1:E83"/>
   <tableColumns count="5">
     <tableColumn name="Date" id="1"/>
@@ -422,28 +453,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G1:G2" displayName="Week1Total" name="Week1Total" id="18" totalsRowShown="0">
-  <autoFilter ref="G1:G2"/>
-  <tableColumns count="1">
-    <tableColumn name="Total Hours" id="1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G1:G2" displayName="OtherTotal" name="OtherTotal" id="2" totalsRowShown="0">
-  <autoFilter ref="G1:G2"/>
-  <tableColumns count="1">
-    <tableColumn name="Total Hours" id="1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E83" displayName="Week5318" name="Week5318" id="3" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E83" displayName="Other" name="Other" id="2" totalsRowShown="0">
   <autoFilter ref="A1:E83"/>
   <tableColumns count="5">
     <tableColumn name="Date" id="1"/>
@@ -456,8 +467,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G1:G2" displayName="Week5Total719" name="Week5Total719" id="4" totalsRowShown="0">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G1:G2" displayName="Week5Total719" name="Week5Total719" id="3" totalsRowShown="0">
   <autoFilter ref="G1:G2"/>
   <tableColumns count="1">
     <tableColumn name="Total Hours" id="1"/>
@@ -466,8 +477,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E83" displayName="Week53" name="Week53" id="5" totalsRowShown="0">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E83" displayName="Week5318" name="Week5318" id="4" totalsRowShown="0">
   <autoFilter ref="A1:E83"/>
   <tableColumns count="5">
     <tableColumn name="Date" id="1"/>
@@ -480,8 +491,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G1:G2" displayName="Week5Total7" name="Week5Total7" id="6" totalsRowShown="0">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G1:G2" displayName="Week5Total7" name="Week5Total7" id="5" totalsRowShown="0">
   <autoFilter ref="G1:G2"/>
   <tableColumns count="1">
     <tableColumn name="Total Hours" id="1"/>
@@ -490,8 +501,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E83" displayName="Week5" name="Week5" id="7" totalsRowShown="0">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E83" displayName="Week53" name="Week53" id="6" totalsRowShown="0">
   <autoFilter ref="A1:E83"/>
   <tableColumns count="5">
     <tableColumn name="Date" id="1"/>
@@ -504,8 +515,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G1:G2" displayName="Week5Total" name="Week5Total" id="8" totalsRowShown="0">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G1:G2" displayName="Week5Total" name="Week5Total" id="7" totalsRowShown="0">
   <autoFilter ref="G1:G2"/>
   <tableColumns count="1">
     <tableColumn name="Total Hours" id="1"/>
@@ -514,8 +525,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E83" displayName="Week4" name="Week4" id="9" totalsRowShown="0">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E83" displayName="Week5" name="Week5" id="8" totalsRowShown="0">
   <autoFilter ref="A1:E83"/>
   <tableColumns count="5">
     <tableColumn name="Date" id="1"/>
@@ -523,6 +534,16 @@
     <tableColumn name="Running Total" id="3"/>
     <tableColumn name="Category" id="4"/>
     <tableColumn name="Comments" id="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G1:G2" displayName="Week4Total" name="Week4Total" id="9" totalsRowShown="0">
+  <autoFilter ref="G1:G2"/>
+  <tableColumns count="1">
+    <tableColumn name="Total Hours" id="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
@@ -822,7 +843,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="15.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="17" width="15.147857142857141" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="5" width="15.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -856,10 +877,10 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
-      <c r="A1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="1"/>
@@ -891,19 +912,19 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="11" t="s">
-        <v>13</v>
+      <c r="A2" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="B2" s="3">
         <f>Week1Total[[#This Row], [Total Hours]]</f>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="12" t="s">
-        <v>14</v>
+      <c r="D2" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -932,12 +953,12 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="11" t="s">
-        <v>16</v>
+      <c r="A3" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="B3" s="3">
         <f>VacationTotal[Total Hours]</f>
@@ -971,12 +992,12 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="11" t="s">
-        <v>18</v>
+      <c r="A4" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="B4" s="3">
         <f>Week2Total[Total Hours]</f>
@@ -1010,12 +1031,12 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="11" t="s">
-        <v>20</v>
+      <c r="A5" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="B5" s="3">
         <f>Week3Total[Total Hours]</f>
@@ -1053,8 +1074,8 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="11" t="s">
-        <v>21</v>
+      <c r="A6" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="B6" s="3">
         <f>Week4Total[Total Hours]</f>
@@ -1088,12 +1109,12 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="11" t="s">
-        <v>23</v>
+      <c r="A7" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="B7" s="3">
         <f>Week5Total[Total Hours]</f>
@@ -1127,12 +1148,12 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="11" t="s">
-        <v>25</v>
+      <c r="A8" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="B8" s="3">
         <f>Week5Total7[Total Hours]</f>
@@ -1168,8 +1189,8 @@
       <c r="AE8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="11" t="s">
-        <v>26</v>
+      <c r="A9" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="B9" s="3">
         <f>Week5Total719[Total Hours]</f>
@@ -1205,8 +1226,8 @@
       <c r="AE9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="11" t="s">
-        <v>27</v>
+      <c r="A10" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="B10" s="3">
         <f>OtherTotal[Total Hours]</f>
@@ -1240,14 +1261,14 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
-      <c r="A11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="14">
+      <c r="A11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="16">
         <f>SUM(B2:B10)</f>
       </c>
       <c r="C11" s="1"/>
@@ -2249,7 +2270,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="4" width="14.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="5" width="15.290714285714287" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="4" width="16.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="4" width="55.14785714285715" customWidth="1" bestFit="1"/>
@@ -2261,7 +2282,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -2278,11 +2299,11 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="6" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
       <c r="C2" s="3">
@@ -2297,11 +2318,11 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
         <v>1.5</v>
       </c>
       <c r="C3" s="3">
@@ -2316,20 +2337,28 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
       <c r="C4" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C3)</f>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="B5" s="6"/>
       <c r="C5" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C4)</f>
       </c>
@@ -2338,9 +2367,9 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C5)</f>
       </c>
@@ -2349,9 +2378,9 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C6)</f>
       </c>
@@ -2360,9 +2389,9 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C7)</f>
       </c>
@@ -2371,9 +2400,9 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C8)</f>
       </c>
@@ -2382,9 +2411,9 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C9)</f>
       </c>
@@ -2393,9 +2422,9 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C10)</f>
       </c>
@@ -2404,9 +2433,9 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C11)</f>
       </c>
@@ -2415,9 +2444,9 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C12)</f>
       </c>
@@ -2426,9 +2455,9 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C13)</f>
       </c>
@@ -2437,9 +2466,9 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C14)</f>
       </c>
@@ -2448,9 +2477,9 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C15)</f>
       </c>
@@ -2459,9 +2488,9 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C16)</f>
       </c>
@@ -2470,9 +2499,9 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C17)</f>
       </c>
@@ -2481,9 +2510,9 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C18)</f>
       </c>
@@ -2492,9 +2521,9 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C19)</f>
       </c>
@@ -2503,9 +2532,9 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C20)</f>
       </c>
@@ -2514,9 +2543,9 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C21)</f>
       </c>
@@ -2525,9 +2554,9 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C22)</f>
       </c>
@@ -2536,9 +2565,9 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C23)</f>
       </c>
@@ -2547,9 +2576,9 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C24)</f>
       </c>
@@ -2558,9 +2587,9 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C25)</f>
       </c>
@@ -2569,9 +2598,9 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C26)</f>
       </c>
@@ -2580,9 +2609,9 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C27)</f>
       </c>
@@ -2591,9 +2620,9 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C28)</f>
       </c>
@@ -2602,9 +2631,9 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C29)</f>
       </c>
@@ -2613,9 +2642,9 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C30)</f>
       </c>
@@ -2624,9 +2653,9 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
+      <c r="B32" s="6"/>
       <c r="C32" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C31)</f>
       </c>
@@ -2635,9 +2664,9 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C32)</f>
       </c>
@@ -2646,9 +2675,9 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C33)</f>
       </c>
@@ -2657,9 +2686,9 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="B35" s="6"/>
       <c r="C35" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C34)</f>
       </c>
@@ -2668,9 +2697,9 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+      <c r="B36" s="6"/>
       <c r="C36" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C35)</f>
       </c>
@@ -2679,9 +2708,9 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
+      <c r="B37" s="6"/>
       <c r="C37" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C36)</f>
       </c>
@@ -2690,9 +2719,9 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+      <c r="B38" s="6"/>
       <c r="C38" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C37)</f>
       </c>
@@ -2701,9 +2730,9 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
+      <c r="B39" s="6"/>
       <c r="C39" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C38)</f>
       </c>
@@ -2712,9 +2741,9 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="B40" s="6"/>
       <c r="C40" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C39)</f>
       </c>
@@ -2723,9 +2752,9 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
+      <c r="B41" s="6"/>
       <c r="C41" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C40)</f>
       </c>
@@ -2734,9 +2763,9 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
+      <c r="B42" s="6"/>
       <c r="C42" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C41)</f>
       </c>
@@ -2745,9 +2774,9 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
+      <c r="B43" s="6"/>
       <c r="C43" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C42)</f>
       </c>
@@ -2756,9 +2785,9 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
+      <c r="B44" s="6"/>
       <c r="C44" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C43)</f>
       </c>
@@ -2767,9 +2796,9 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
+      <c r="B45" s="6"/>
       <c r="C45" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C44)</f>
       </c>
@@ -2778,9 +2807,9 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
+      <c r="B46" s="6"/>
       <c r="C46" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C45)</f>
       </c>
@@ -2789,9 +2818,9 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
+      <c r="B47" s="6"/>
       <c r="C47" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C46)</f>
       </c>
@@ -2800,9 +2829,9 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
+      <c r="B48" s="6"/>
       <c r="C48" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C47)</f>
       </c>
@@ -2811,9 +2840,9 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
+      <c r="B49" s="6"/>
       <c r="C49" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C48)</f>
       </c>
@@ -2822,9 +2851,9 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
       <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
+      <c r="B50" s="6"/>
       <c r="C50" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C49)</f>
       </c>
@@ -2835,7 +2864,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
+      <c r="B51" s="6"/>
       <c r="C51" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C50)</f>
       </c>
@@ -2846,7 +2875,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
+      <c r="B52" s="6"/>
       <c r="C52" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C51)</f>
       </c>
@@ -2857,7 +2886,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
+      <c r="B53" s="6"/>
       <c r="C53" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C52)</f>
       </c>
@@ -2868,7 +2897,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+      <c r="B54" s="6"/>
       <c r="C54" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C53)</f>
       </c>
@@ -2879,7 +2908,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
+      <c r="B55" s="6"/>
       <c r="C55" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C54)</f>
       </c>
@@ -2890,7 +2919,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
+      <c r="B56" s="6"/>
       <c r="C56" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C55)</f>
       </c>
@@ -2901,7 +2930,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
+      <c r="B57" s="6"/>
       <c r="C57" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C56)</f>
       </c>
@@ -2912,7 +2941,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
+      <c r="B58" s="6"/>
       <c r="C58" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C57)</f>
       </c>
@@ -2923,7 +2952,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
+      <c r="B59" s="6"/>
       <c r="C59" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C58)</f>
       </c>
@@ -2934,7 +2963,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
+      <c r="B60" s="6"/>
       <c r="C60" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C59)</f>
       </c>
@@ -2945,7 +2974,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
+      <c r="B61" s="6"/>
       <c r="C61" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C60)</f>
       </c>
@@ -2956,7 +2985,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="1"/>
-      <c r="B62" s="1"/>
+      <c r="B62" s="6"/>
       <c r="C62" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C61)</f>
       </c>
@@ -2967,7 +2996,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
+      <c r="B63" s="6"/>
       <c r="C63" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C62)</f>
       </c>
@@ -2978,7 +3007,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
+      <c r="B64" s="6"/>
       <c r="C64" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C63)</f>
       </c>
@@ -2989,7 +3018,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
+      <c r="B65" s="6"/>
       <c r="C65" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C64)</f>
       </c>
@@ -3000,7 +3029,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
+      <c r="B66" s="6"/>
       <c r="C66" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C65)</f>
       </c>
@@ -3011,7 +3040,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
+      <c r="B67" s="6"/>
       <c r="C67" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C66)</f>
       </c>
@@ -3022,7 +3051,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
+      <c r="B68" s="6"/>
       <c r="C68" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C67)</f>
       </c>
@@ -3033,7 +3062,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
+      <c r="B69" s="6"/>
       <c r="C69" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C68)</f>
       </c>
@@ -3044,7 +3073,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
+      <c r="B70" s="6"/>
       <c r="C70" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C69)</f>
       </c>
@@ -3055,7 +3084,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
+      <c r="B71" s="6"/>
       <c r="C71" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C70)</f>
       </c>
@@ -3066,7 +3095,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
+      <c r="B72" s="6"/>
       <c r="C72" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C71)</f>
       </c>
@@ -3077,7 +3106,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
+      <c r="B73" s="6"/>
       <c r="C73" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C72)</f>
       </c>
@@ -3088,7 +3117,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
+      <c r="B74" s="6"/>
       <c r="C74" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C73)</f>
       </c>
@@ -3099,7 +3128,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
+      <c r="B75" s="6"/>
       <c r="C75" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C74)</f>
       </c>
@@ -3110,7 +3139,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
+      <c r="B76" s="6"/>
       <c r="C76" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C75)</f>
       </c>
@@ -3121,7 +3150,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
+      <c r="B77" s="6"/>
       <c r="C77" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C76)</f>
       </c>
@@ -3132,7 +3161,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
+      <c r="B78" s="6"/>
       <c r="C78" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C77)</f>
       </c>
@@ -3143,7 +3172,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
+      <c r="B79" s="6"/>
       <c r="C79" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C78)</f>
       </c>
@@ -3154,7 +3183,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
+      <c r="B80" s="6"/>
       <c r="C80" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C79)</f>
       </c>
@@ -3165,7 +3194,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
+      <c r="B81" s="6"/>
       <c r="C81" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C80)</f>
       </c>
@@ -3176,7 +3205,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
+      <c r="B82" s="6"/>
       <c r="C82" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C81)</f>
       </c>
@@ -3187,7 +3216,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
+      <c r="B83" s="6"/>
       <c r="C83" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C82)</f>
       </c>

--- a/CSC2033Timesheet.xlsx
+++ b/CSC2033Timesheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -66,6 +66,15 @@
   </si>
   <si>
     <t>Research; assigning roles on what parts of the project we should each obtain more information about</t>
+  </si>
+  <si>
+    <t>23/04/2024</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Looking at how similar apps do things, languages that we can use to complete the task, overall development software options, app features that can be included such as what will be in each "tab" of the app, ways to make the experience better for users to encourage them to keep using the app, social media integration, pros of implementing</t>
   </si>
   <si>
     <t>#</t>
@@ -109,9 +118,6 @@
   </si>
   <si>
     <t>Vacation Period</t>
-  </si>
-  <si>
-    <t>Research</t>
   </si>
   <si>
     <t>Week 2</t>
@@ -165,13 +171,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -274,7 +280,7 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -283,16 +289,16 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -304,16 +310,16 @@
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -334,17 +340,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G1:G2" displayName="OtherTotal" name="OtherTotal" id="1" totalsRowShown="0">
-  <autoFilter ref="G1:G2"/>
-  <tableColumns count="1">
-    <tableColumn name="Total Hours" id="1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E83" displayName="Week4" name="Week4" id="10" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E83" displayName="Other" name="Other" id="1" totalsRowShown="0">
   <autoFilter ref="A1:E83"/>
   <tableColumns count="5">
     <tableColumn name="Date" id="1"/>
@@ -357,8 +353,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G1:G2" displayName="Week3Total" name="Week3Total" id="11" totalsRowShown="0">
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G1:G2" displayName="Week4Total" name="Week4Total" id="10" totalsRowShown="0">
   <autoFilter ref="G1:G2"/>
   <tableColumns count="1">
     <tableColumn name="Total Hours" id="1"/>
@@ -367,8 +363,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E83" displayName="Week3" name="Week3" id="12" totalsRowShown="0">
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E83" displayName="Week3" name="Week3" id="11" totalsRowShown="0">
   <autoFilter ref="A1:E83"/>
   <tableColumns count="5">
     <tableColumn name="Date" id="1"/>
@@ -381,8 +377,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G1:G2" displayName="Week2Total" name="Week2Total" id="13" totalsRowShown="0">
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G1:G2" displayName="Week3Total" name="Week3Total" id="12" totalsRowShown="0">
   <autoFilter ref="G1:G2"/>
   <tableColumns count="1">
     <tableColumn name="Total Hours" id="1"/>
@@ -391,8 +387,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E83" displayName="Week2" name="Week2" id="14" totalsRowShown="0">
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E83" displayName="Week2" name="Week2" id="13" totalsRowShown="0">
   <autoFilter ref="A1:E83"/>
   <tableColumns count="5">
     <tableColumn name="Date" id="1"/>
@@ -405,8 +401,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G1:G2" displayName="VacationTotal" name="VacationTotal" id="15" totalsRowShown="0">
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G1:G2" displayName="Week2Total" name="Week2Total" id="14" totalsRowShown="0">
   <autoFilter ref="G1:G2"/>
   <tableColumns count="1">
     <tableColumn name="Total Hours" id="1"/>
@@ -415,8 +411,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E83" displayName="Vacation" name="Vacation" id="16" totalsRowShown="0">
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E83" displayName="Vacation" name="Vacation" id="15" totalsRowShown="0">
   <autoFilter ref="A1:E83"/>
   <tableColumns count="5">
     <tableColumn name="Date" id="1"/>
@@ -429,8 +425,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G1:G2" displayName="Week1Total" name="Week1Total" id="17" totalsRowShown="0">
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G1:G2" displayName="VacationTotal" name="VacationTotal" id="16" totalsRowShown="0">
   <autoFilter ref="G1:G2"/>
   <tableColumns count="1">
     <tableColumn name="Total Hours" id="1"/>
@@ -439,8 +435,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E83" displayName="Week1" name="Week1" id="18" totalsRowShown="0">
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E83" displayName="Week1" name="Week1" id="17" totalsRowShown="0">
   <autoFilter ref="A1:E83"/>
   <tableColumns count="5">
     <tableColumn name="Date" id="1"/>
@@ -453,8 +449,28 @@
 </table>
 </file>
 
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G1:G2" displayName="Week1Total" name="Week1Total" id="18" totalsRowShown="0">
+  <autoFilter ref="G1:G2"/>
+  <tableColumns count="1">
+    <tableColumn name="Total Hours" id="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E83" displayName="Other" name="Other" id="2" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G1:G2" displayName="OtherTotal" name="OtherTotal" id="2" totalsRowShown="0">
+  <autoFilter ref="G1:G2"/>
+  <tableColumns count="1">
+    <tableColumn name="Total Hours" id="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E83" displayName="Week5318" name="Week5318" id="3" totalsRowShown="0">
   <autoFilter ref="A1:E83"/>
   <tableColumns count="5">
     <tableColumn name="Date" id="1"/>
@@ -467,8 +483,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G1:G2" displayName="Week5Total719" name="Week5Total719" id="3" totalsRowShown="0">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G1:G2" displayName="Week5Total719" name="Week5Total719" id="4" totalsRowShown="0">
   <autoFilter ref="G1:G2"/>
   <tableColumns count="1">
     <tableColumn name="Total Hours" id="1"/>
@@ -477,8 +493,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E83" displayName="Week5318" name="Week5318" id="4" totalsRowShown="0">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E83" displayName="Week53" name="Week53" id="5" totalsRowShown="0">
   <autoFilter ref="A1:E83"/>
   <tableColumns count="5">
     <tableColumn name="Date" id="1"/>
@@ -491,8 +507,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G1:G2" displayName="Week5Total7" name="Week5Total7" id="5" totalsRowShown="0">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G1:G2" displayName="Week5Total7" name="Week5Total7" id="6" totalsRowShown="0">
   <autoFilter ref="G1:G2"/>
   <tableColumns count="1">
     <tableColumn name="Total Hours" id="1"/>
@@ -501,8 +517,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E83" displayName="Week53" name="Week53" id="6" totalsRowShown="0">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E83" displayName="Week5" name="Week5" id="7" totalsRowShown="0">
   <autoFilter ref="A1:E83"/>
   <tableColumns count="5">
     <tableColumn name="Date" id="1"/>
@@ -515,8 +531,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G1:G2" displayName="Week5Total" name="Week5Total" id="7" totalsRowShown="0">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G1:G2" displayName="Week5Total" name="Week5Total" id="8" totalsRowShown="0">
   <autoFilter ref="G1:G2"/>
   <tableColumns count="1">
     <tableColumn name="Total Hours" id="1"/>
@@ -525,8 +541,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E83" displayName="Week5" name="Week5" id="8" totalsRowShown="0">
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:E83" displayName="Week4" name="Week4" id="9" totalsRowShown="0">
   <autoFilter ref="A1:E83"/>
   <tableColumns count="5">
     <tableColumn name="Date" id="1"/>
@@ -534,16 +550,6 @@
     <tableColumn name="Running Total" id="3"/>
     <tableColumn name="Category" id="4"/>
     <tableColumn name="Comments" id="5"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G1:G2" displayName="Week4Total" name="Week4Total" id="9" totalsRowShown="0">
-  <autoFilter ref="G1:G2"/>
-  <tableColumns count="1">
-    <tableColumn name="Total Hours" id="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
 </table>
@@ -878,7 +884,7 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>5</v>
@@ -912,19 +918,19 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3">
         <f>Week1Total[[#This Row], [Total Hours]]</f>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -953,12 +959,12 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3">
         <f>VacationTotal[Total Hours]</f>
@@ -992,12 +998,12 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3">
         <f>Week2Total[Total Hours]</f>
@@ -1031,12 +1037,12 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3">
         <f>Week3Total[Total Hours]</f>
@@ -1075,7 +1081,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3">
         <f>Week4Total[Total Hours]</f>
@@ -1109,12 +1115,12 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" s="3">
         <f>Week5Total[Total Hours]</f>
@@ -1148,12 +1154,12 @@
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" s="3">
         <f>Week5Total7[Total Hours]</f>
@@ -1190,7 +1196,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B9" s="3">
         <f>Week5Total719[Total Hours]</f>
@@ -1227,7 +1233,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B10" s="3">
         <f>OtherTotal[Total Hours]</f>
@@ -1261,12 +1267,12 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B11" s="16">
         <f>SUM(B2:B10)</f>
@@ -2278,7 +2284,7 @@
     <col min="7" max="7" style="4" width="13.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2303,7 +2309,7 @@
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="3">
@@ -2322,7 +2328,7 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>1.5</v>
       </c>
       <c r="C3" s="3">
@@ -2341,7 +2347,7 @@
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
       <c r="C4" s="3">
@@ -2357,19 +2363,27 @@
       <c r="G4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1.5</v>
+      </c>
       <c r="C5" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C4)</f>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="6"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C5)</f>
       </c>
@@ -2380,7 +2394,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1"/>
-      <c r="B7" s="6"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C6)</f>
       </c>
@@ -2391,7 +2405,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1"/>
-      <c r="B8" s="6"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C7)</f>
       </c>
@@ -2402,7 +2416,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1"/>
-      <c r="B9" s="6"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C8)</f>
       </c>
@@ -2413,7 +2427,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1"/>
-      <c r="B10" s="6"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C9)</f>
       </c>
@@ -2424,7 +2438,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1"/>
-      <c r="B11" s="6"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C10)</f>
       </c>
@@ -2435,7 +2449,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1"/>
-      <c r="B12" s="6"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C11)</f>
       </c>
@@ -2446,7 +2460,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1"/>
-      <c r="B13" s="6"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C12)</f>
       </c>
@@ -2457,7 +2471,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
-      <c r="B14" s="6"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C13)</f>
       </c>
@@ -2468,7 +2482,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1"/>
-      <c r="B15" s="6"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C14)</f>
       </c>
@@ -2479,7 +2493,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1"/>
-      <c r="B16" s="6"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C15)</f>
       </c>
@@ -2490,7 +2504,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1"/>
-      <c r="B17" s="6"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C16)</f>
       </c>
@@ -2501,7 +2515,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1"/>
-      <c r="B18" s="6"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C17)</f>
       </c>
@@ -2512,7 +2526,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1"/>
-      <c r="B19" s="6"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C18)</f>
       </c>
@@ -2523,7 +2537,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1"/>
-      <c r="B20" s="6"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C19)</f>
       </c>
@@ -2534,7 +2548,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1"/>
-      <c r="B21" s="6"/>
+      <c r="B21" s="9"/>
       <c r="C21" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C20)</f>
       </c>
@@ -2545,7 +2559,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1"/>
-      <c r="B22" s="6"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C21)</f>
       </c>
@@ -2556,7 +2570,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1"/>
-      <c r="B23" s="6"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C22)</f>
       </c>
@@ -2567,7 +2581,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1"/>
-      <c r="B24" s="6"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C23)</f>
       </c>
@@ -2578,7 +2592,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="1"/>
-      <c r="B25" s="6"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C24)</f>
       </c>
@@ -2589,7 +2603,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1"/>
-      <c r="B26" s="6"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C25)</f>
       </c>
@@ -2600,7 +2614,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1"/>
-      <c r="B27" s="6"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C26)</f>
       </c>
@@ -2611,7 +2625,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1"/>
-      <c r="B28" s="6"/>
+      <c r="B28" s="9"/>
       <c r="C28" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C27)</f>
       </c>
@@ -2622,7 +2636,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="1"/>
-      <c r="B29" s="6"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C28)</f>
       </c>
@@ -2633,7 +2647,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="1"/>
-      <c r="B30" s="6"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C29)</f>
       </c>
@@ -2644,7 +2658,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1"/>
-      <c r="B31" s="6"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C30)</f>
       </c>
@@ -2655,7 +2669,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="1"/>
-      <c r="B32" s="6"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C31)</f>
       </c>
@@ -2666,7 +2680,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="1"/>
-      <c r="B33" s="6"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C32)</f>
       </c>
@@ -2677,7 +2691,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="1"/>
-      <c r="B34" s="6"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C33)</f>
       </c>
@@ -2688,7 +2702,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="1"/>
-      <c r="B35" s="6"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C34)</f>
       </c>
@@ -2699,7 +2713,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="1"/>
-      <c r="B36" s="6"/>
+      <c r="B36" s="9"/>
       <c r="C36" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C35)</f>
       </c>
@@ -2710,7 +2724,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="19.5">
       <c r="A37" s="1"/>
-      <c r="B37" s="6"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C36)</f>
       </c>
@@ -2721,7 +2735,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="1"/>
-      <c r="B38" s="6"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C37)</f>
       </c>
@@ -2732,7 +2746,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="1"/>
-      <c r="B39" s="6"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C38)</f>
       </c>
@@ -2743,7 +2757,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="1"/>
-      <c r="B40" s="6"/>
+      <c r="B40" s="9"/>
       <c r="C40" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C39)</f>
       </c>
@@ -2754,7 +2768,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="1"/>
-      <c r="B41" s="6"/>
+      <c r="B41" s="9"/>
       <c r="C41" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C40)</f>
       </c>
@@ -2765,7 +2779,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
       <c r="A42" s="1"/>
-      <c r="B42" s="6"/>
+      <c r="B42" s="9"/>
       <c r="C42" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C41)</f>
       </c>
@@ -2776,7 +2790,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="1"/>
-      <c r="B43" s="6"/>
+      <c r="B43" s="9"/>
       <c r="C43" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C42)</f>
       </c>
@@ -2787,7 +2801,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="1"/>
-      <c r="B44" s="6"/>
+      <c r="B44" s="9"/>
       <c r="C44" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C43)</f>
       </c>
@@ -2798,7 +2812,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="1"/>
-      <c r="B45" s="6"/>
+      <c r="B45" s="9"/>
       <c r="C45" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C44)</f>
       </c>
@@ -2809,7 +2823,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
       <c r="A46" s="1"/>
-      <c r="B46" s="6"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C45)</f>
       </c>
@@ -2820,7 +2834,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="1"/>
-      <c r="B47" s="6"/>
+      <c r="B47" s="9"/>
       <c r="C47" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C46)</f>
       </c>
@@ -2831,7 +2845,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="1"/>
-      <c r="B48" s="6"/>
+      <c r="B48" s="9"/>
       <c r="C48" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C47)</f>
       </c>
@@ -2842,7 +2856,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
       <c r="A49" s="1"/>
-      <c r="B49" s="6"/>
+      <c r="B49" s="9"/>
       <c r="C49" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C48)</f>
       </c>
@@ -2853,7 +2867,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="19.5">
       <c r="A50" s="1"/>
-      <c r="B50" s="6"/>
+      <c r="B50" s="9"/>
       <c r="C50" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C49)</f>
       </c>
@@ -2864,7 +2878,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="1"/>
-      <c r="B51" s="6"/>
+      <c r="B51" s="9"/>
       <c r="C51" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C50)</f>
       </c>
@@ -2875,7 +2889,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="1"/>
-      <c r="B52" s="6"/>
+      <c r="B52" s="9"/>
       <c r="C52" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C51)</f>
       </c>
@@ -2886,7 +2900,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="1"/>
-      <c r="B53" s="6"/>
+      <c r="B53" s="9"/>
       <c r="C53" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C52)</f>
       </c>
@@ -2897,7 +2911,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="1"/>
-      <c r="B54" s="6"/>
+      <c r="B54" s="9"/>
       <c r="C54" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C53)</f>
       </c>
@@ -2908,7 +2922,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="1"/>
-      <c r="B55" s="6"/>
+      <c r="B55" s="9"/>
       <c r="C55" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C54)</f>
       </c>
@@ -2919,7 +2933,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="1"/>
-      <c r="B56" s="6"/>
+      <c r="B56" s="9"/>
       <c r="C56" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C55)</f>
       </c>
@@ -2930,7 +2944,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="1"/>
-      <c r="B57" s="6"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C56)</f>
       </c>
@@ -2941,7 +2955,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="1"/>
-      <c r="B58" s="6"/>
+      <c r="B58" s="9"/>
       <c r="C58" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C57)</f>
       </c>
@@ -2952,7 +2966,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="1"/>
-      <c r="B59" s="6"/>
+      <c r="B59" s="9"/>
       <c r="C59" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C58)</f>
       </c>
@@ -2963,7 +2977,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="1"/>
-      <c r="B60" s="6"/>
+      <c r="B60" s="9"/>
       <c r="C60" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C59)</f>
       </c>
@@ -2974,7 +2988,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="1"/>
-      <c r="B61" s="6"/>
+      <c r="B61" s="9"/>
       <c r="C61" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C60)</f>
       </c>
@@ -2985,7 +2999,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="1"/>
-      <c r="B62" s="6"/>
+      <c r="B62" s="9"/>
       <c r="C62" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C61)</f>
       </c>
@@ -2996,7 +3010,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="1"/>
-      <c r="B63" s="6"/>
+      <c r="B63" s="9"/>
       <c r="C63" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C62)</f>
       </c>
@@ -3007,7 +3021,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="1"/>
-      <c r="B64" s="6"/>
+      <c r="B64" s="9"/>
       <c r="C64" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C63)</f>
       </c>
@@ -3018,7 +3032,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="1"/>
-      <c r="B65" s="6"/>
+      <c r="B65" s="9"/>
       <c r="C65" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C64)</f>
       </c>
@@ -3029,7 +3043,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="1"/>
-      <c r="B66" s="6"/>
+      <c r="B66" s="9"/>
       <c r="C66" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C65)</f>
       </c>
@@ -3040,7 +3054,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="1"/>
-      <c r="B67" s="6"/>
+      <c r="B67" s="9"/>
       <c r="C67" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C66)</f>
       </c>
@@ -3051,7 +3065,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="1"/>
-      <c r="B68" s="6"/>
+      <c r="B68" s="9"/>
       <c r="C68" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C67)</f>
       </c>
@@ -3062,7 +3076,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="1"/>
-      <c r="B69" s="6"/>
+      <c r="B69" s="9"/>
       <c r="C69" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C68)</f>
       </c>
@@ -3073,7 +3087,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="1"/>
-      <c r="B70" s="6"/>
+      <c r="B70" s="9"/>
       <c r="C70" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C69)</f>
       </c>
@@ -3084,7 +3098,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="1"/>
-      <c r="B71" s="6"/>
+      <c r="B71" s="9"/>
       <c r="C71" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C70)</f>
       </c>
@@ -3095,7 +3109,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="1"/>
-      <c r="B72" s="6"/>
+      <c r="B72" s="9"/>
       <c r="C72" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C71)</f>
       </c>
@@ -3106,7 +3120,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="1"/>
-      <c r="B73" s="6"/>
+      <c r="B73" s="9"/>
       <c r="C73" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C72)</f>
       </c>
@@ -3117,7 +3131,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="1"/>
-      <c r="B74" s="6"/>
+      <c r="B74" s="9"/>
       <c r="C74" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C73)</f>
       </c>
@@ -3128,7 +3142,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="1"/>
-      <c r="B75" s="6"/>
+      <c r="B75" s="9"/>
       <c r="C75" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C74)</f>
       </c>
@@ -3139,7 +3153,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="1"/>
-      <c r="B76" s="6"/>
+      <c r="B76" s="9"/>
       <c r="C76" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C75)</f>
       </c>
@@ -3150,7 +3164,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="1"/>
-      <c r="B77" s="6"/>
+      <c r="B77" s="9"/>
       <c r="C77" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C76)</f>
       </c>
@@ -3161,7 +3175,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="1"/>
-      <c r="B78" s="6"/>
+      <c r="B78" s="9"/>
       <c r="C78" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C77)</f>
       </c>
@@ -3172,7 +3186,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="1"/>
-      <c r="B79" s="6"/>
+      <c r="B79" s="9"/>
       <c r="C79" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C78)</f>
       </c>
@@ -3183,7 +3197,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="1"/>
-      <c r="B80" s="6"/>
+      <c r="B80" s="9"/>
       <c r="C80" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C79)</f>
       </c>
@@ -3194,7 +3208,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="1"/>
-      <c r="B81" s="6"/>
+      <c r="B81" s="9"/>
       <c r="C81" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C80)</f>
       </c>
@@ -3205,7 +3219,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="1"/>
-      <c r="B82" s="6"/>
+      <c r="B82" s="9"/>
       <c r="C82" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C81)</f>
       </c>
@@ -3216,7 +3230,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="1"/>
-      <c r="B83" s="6"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="3">
         <f>SUM(Week1[[#This Row], [Hours]]+C82)</f>
       </c>
